--- a/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
+++ b/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -78,87 +78,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>試験的に用意されたアイテム。見るからに毒々しい。</t>
-    <rPh sb="0" eb="3">
-      <t>シケンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ドクドク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験的に用意されたアイテム。中身はカラのようだ。</t>
-    <rPh sb="0" eb="3">
-      <t>シケンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UsedMessage</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>少しおなかがふくれた。</t>
-    <rPh sb="0" eb="1">
-      <t>スコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>何も起きない。</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験的に用意されたアイテム。気休め程度に回復。</t>
-    <rPh sb="0" eb="3">
-      <t>シケンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キヤス</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…あまりかわらない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…毒だ！</t>
-    <rPh sb="1" eb="2">
-      <t>ドク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -213,6 +137,51 @@
     <rPh sb="19" eb="21">
       <t>カイフク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験的に用意されたアイテム。Sljfhaljshfdhs</t>
+    <rPh sb="0" eb="3">
+      <t>シケンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たれぞうです。撃たれそうです。</t>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験的に用意されたアイテム。義勇軍は信用ならない。</t>
+    <rPh sb="0" eb="3">
+      <t>シケンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ギユウグン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UseMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまかった。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -546,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -557,9 +526,10 @@
     <col min="3" max="3" width="13.90234375" customWidth="1"/>
     <col min="12" max="12" width="67.234375" customWidth="1"/>
     <col min="13" max="13" width="29.046875" customWidth="1"/>
+    <col min="14" max="14" width="38.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -597,18 +567,21 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -635,21 +608,24 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -676,21 +652,24 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -717,21 +696,24 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -758,10 +740,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
+++ b/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>Sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Poison</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -140,48 +136,215 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>試験的に用意されたアイテム。Sljfhaljshfdhs</t>
+    <t>UseMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまかった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験的に用意されたアイテム。HPが1回復。</t>
     <rPh sb="0" eb="3">
       <t>シケンテキ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>ヨウイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>たれぞうです。撃たれそうです。</t>
-    <rPh sb="7" eb="8">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験的に用意されたアイテム。義勇軍は信用ならない。</t>
+    <rPh sb="18" eb="20">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験的に用意されたアイテム。中身は空っぽ。</t>
     <rPh sb="0" eb="3">
       <t>シケンテキ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>ヨウイ</t>
     </rPh>
-    <rPh sb="14" eb="17">
-      <t>ギユウグン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UseMessage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>うまい。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>うまかった。</t>
+    <rPh sb="14" eb="16">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験的に用意されたアイテム。見るからに毒々しい。</t>
+    <rPh sb="0" eb="3">
+      <t>シケンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドクドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費アイテム1を食べてみた。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費アイテム2を食べてみた。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費アイテム4を食べてみた。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費アイテム3を食べようとしてみた。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気の味がする。</t>
+    <rPh sb="0" eb="2">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…毒だ！</t>
+    <rPh sb="1" eb="2">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素手</t>
+    <rPh sb="0" eb="2">
+      <t>スデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひのきのぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きんぞくバット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素手</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土鍋</t>
+    <rPh sb="0" eb="2">
+      <t>ドナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Consumables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Consumables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅の盾</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器1</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器2</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器3</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾1</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾2</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾3</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -515,21 +678,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="3" max="3" width="13.90234375" customWidth="1"/>
-    <col min="12" max="12" width="67.234375" customWidth="1"/>
-    <col min="13" max="13" width="29.046875" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="45.76171875" customWidth="1"/>
     <col min="14" max="14" width="38.6171875" customWidth="1"/>
+    <col min="15" max="15" width="17.80859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -549,39 +713,42 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -595,11 +762,11 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -607,25 +774,28 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
+      <c r="L2" s="1">
+        <v>0</v>
       </c>
       <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
+      <c r="O2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -639,11 +809,11 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -651,25 +821,28 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>24</v>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
         <v>27</v>
       </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -683,11 +856,11 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -695,25 +868,28 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
+      <c r="L4" s="1">
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -727,31 +903,318 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"Consumables"</formula1>
     </dataValidation>

--- a/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
+++ b/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -344,6 +344,45 @@
     <t>盾3</t>
     <rPh sb="0" eb="1">
       <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほのおのつえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たつまきのつえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎を前に飛ばしてこうげきする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たつまきが当たった敵をふきとばす。</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -678,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -1179,36 +1218,118 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
         <v>0</v>
       </c>
     </row>

--- a/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
+++ b/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -384,6 +384,10 @@
     <rPh sb="9" eb="10">
       <t>テキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExType</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -717,22 +721,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="3" max="3" width="13.90234375" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="45.76171875" customWidth="1"/>
-    <col min="14" max="14" width="38.6171875" customWidth="1"/>
-    <col min="15" max="15" width="17.80859375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="45.76171875" customWidth="1"/>
+    <col min="15" max="15" width="38.6171875" customWidth="1"/>
+    <col min="16" max="16" width="17.80859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,16 +774,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -816,17 +823,20 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -863,17 +873,20 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -910,17 +923,20 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -957,17 +973,20 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1001,14 +1020,19 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,14 +1066,19 @@
       <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,14 +1112,19 @@
       <c r="K8" s="1">
         <v>10</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1124,14 +1158,19 @@
       <c r="K9" s="1">
         <v>10</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>3</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1165,14 +1204,19 @@
       <c r="K10" s="1">
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>3</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1206,14 +1250,19 @@
       <c r="K11" s="1">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>3</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1247,14 +1296,19 @@
       <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>3</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1288,14 +1342,19 @@
       <c r="K13" s="1">
         <v>10</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>3</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1332,6 +1391,12 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
+++ b/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>ExValue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Range</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -388,6 +384,63 @@
   </si>
   <si>
     <t>ExType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばくはつの書</t>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まんぷくの書</t>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灰色の本。読むとあたりが爆発する。</t>
+    <rPh sb="0" eb="2">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橙色の本。読むとなぜかまんぷくになる。正直怖い。</t>
+    <rPh sb="0" eb="2">
+      <t>ダイダイイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウジキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ammo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -721,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -747,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -756,10 +809,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -768,22 +821,22 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.85">
@@ -791,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -812,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -827,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.85">
@@ -841,10 +894,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -862,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -877,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.85">
@@ -891,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -912,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -927,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.85">
@@ -941,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -962,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -977,13 +1030,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.85">
@@ -991,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1012,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1027,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1037,10 +1090,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1058,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1073,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1083,10 +1136,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1104,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1119,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1129,10 +1182,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1150,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1165,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1175,10 +1228,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1196,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1211,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1221,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1242,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1257,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1267,10 +1320,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1285,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1303,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1313,10 +1366,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1331,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1349,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1359,10 +1412,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1380,23 +1433,115 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.85">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.85">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
+++ b/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>うまかった。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>試験的に用意されたアイテム。HPが1回復。</t>
     <rPh sb="0" eb="3">
       <t>シケンテキ</t>
@@ -169,22 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>試験的に用意されたアイテム。見るからに毒々しい。</t>
-    <rPh sb="0" eb="3">
-      <t>シケンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ドクドク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>消費アイテム1を食べてみた。</t>
     <rPh sb="0" eb="2">
       <t>ショウヒ</t>
@@ -225,23 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>空気の味がする。</t>
-    <rPh sb="0" eb="2">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…毒だ！</t>
-    <rPh sb="1" eb="2">
-      <t>ドク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>素手</t>
     <rPh sb="0" eb="2">
       <t>スデ</t>
@@ -421,7 +384,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>橙色の本。読むとなぜかまんぷくになる。正直怖い。</t>
+    <t>Ammo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費後メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験的に用意されたアイテム。</t>
+    <rPh sb="0" eb="3">
+      <t>シケンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橙色の本。読むとなぜかまんぷくになる。</t>
     <rPh sb="0" eb="2">
       <t>ダイダイイロ</t>
     </rPh>
@@ -431,16 +418,6 @@
     <rPh sb="5" eb="6">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウジキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>コワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ammo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -777,7 +754,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -809,10 +786,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -827,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
@@ -883,10 +860,10 @@
         <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.85">
@@ -930,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.85">
@@ -980,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.85">
@@ -994,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -1015,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1030,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.85">
@@ -1044,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1080,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1090,10 +1067,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1126,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1136,10 +1113,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1172,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1182,10 +1159,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1218,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1228,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1264,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1274,10 +1251,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1310,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1320,10 +1297,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1356,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1366,10 +1343,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1402,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1412,10 +1389,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1448,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1458,10 +1435,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1494,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1504,10 +1481,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1525,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>

--- a/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
+++ b/F+/Assets/Resources/DataTable/ItemTable/ItemTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -85,141 +85,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>消費アイテム1</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費アイテム2</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費アイテム3</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費アイテム4</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験的に用意されたアイテム。満腹度が1回復。</t>
-    <rPh sb="0" eb="3">
-      <t>シケンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マンプク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UseMessage</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>試験的に用意されたアイテム。HPが1回復。</t>
-    <rPh sb="0" eb="3">
-      <t>シケンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験的に用意されたアイテム。中身は空っぽ。</t>
-    <rPh sb="0" eb="3">
-      <t>シケンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費アイテム1を食べてみた。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費アイテム2を食べてみた。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費アイテム4を食べてみた。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費アイテム3を食べようとしてみた。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>素手</t>
-    <rPh sb="0" eb="2">
-      <t>スデ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひのきのぼう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きんぞくバット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weapon</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -236,17 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>素手</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>土鍋</t>
-    <rPh sb="0" eb="2">
-      <t>ドナベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Consumables</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,58 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>銅の盾</t>
-    <rPh sb="0" eb="1">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武器1</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武器2</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武器3</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盾1</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盾2</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盾3</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダミー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -320,29 +126,6 @@
   </si>
   <si>
     <t>たつまきのつえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>炎を前に飛ばしてこうげきする。</t>
-    <rPh sb="0" eb="1">
-      <t>ホノオ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>たつまきが当たった敵をふきとばす。</t>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>テキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -368,55 +151,235 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>灰色の本。読むとあたりが爆発する。</t>
+    <t>Ammo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいふく草</t>
+    <rPh sb="4" eb="5">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいふく豆</t>
+    <rPh sb="4" eb="5">
+      <t>マメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいふく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金のしゃもじ</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手ごろなえだ</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金のナベぶた</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうのたて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうのいた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力がちょっとかいふく</t>
     <rPh sb="0" eb="2">
-      <t>ハイイロ</t>
-    </rPh>
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力がそれなりにかいふく</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おなかがすこしふくれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おなかがそれなりにふくれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金色にかがやいている</t>
+    <rPh sb="0" eb="2">
+      <t>キンイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たよりないがないよりマシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かたい石</t>
     <rPh sb="3" eb="4">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶつけたらいたそうだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し光っている</t>
+    <rPh sb="0" eb="1">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ちづらいがたよりになる</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいふく豆を食べた。</t>
+    <rPh sb="4" eb="5">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいふく草を食べた。</t>
+    <rPh sb="4" eb="5">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だんごを食べた。</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいふくを食べた。</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほのおを前にとばしてこうげきする</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たつまきが当たったてきをふきとばす</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい色の本。読むとあたりがばくはつする</t>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>ホン</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="6" eb="7">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>バクハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ammo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費後メッセージ</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいだい色の本。読むとまんぷくになる</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…すこしかいふくした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…それなりにかいふくした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…すこしおなかがふくれた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…それなりにおなかがふくれた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の矢</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試験的に用意されたアイテム。</t>
-    <rPh sb="0" eb="3">
-      <t>シケンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>橙色の本。読むとなぜかまんぷくになる。</t>
-    <rPh sb="0" eb="2">
-      <t>ダイダイイロ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨ</t>
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木で作られた矢。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -751,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -786,10 +749,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -804,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>11</v>
@@ -824,13 +787,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -857,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.85">
@@ -874,10 +837,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -907,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.85">
@@ -924,13 +887,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -957,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.85">
@@ -971,16 +934,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -992,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1007,13 +970,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.85">
@@ -1021,10 +984,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1033,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1057,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1067,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1103,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1113,10 +1076,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1149,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1159,10 +1122,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1174,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1195,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1205,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -1241,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1251,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1287,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1297,10 +1260,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1333,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1343,10 +1306,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1355,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1379,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1389,10 +1352,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1425,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1435,10 +1398,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1471,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1481,10 +1444,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1493,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1502,23 +1465,66 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
